--- a/Stueckliste.xlsx
+++ b/Stueckliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -35,18 +35,9 @@
     <t>Preis</t>
   </si>
   <si>
-    <t>http://3dmarkt.at/de/elektronik/diy-sets/ramps-14-basis-set.html</t>
-  </si>
-  <si>
     <t>http://3dmarkt.at/de/3D-Drucker-Zubehoer-Bauteile-Ersatzteile/motor/nema17-schrittmotor-18-grad-pro-schritt-48-kg-cm.html</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Netzteil 12 oder 24V</t>
-  </si>
-  <si>
     <t>Gleitschiene 16mm-40cm</t>
   </si>
   <si>
@@ -57,6 +48,69 @@
   </si>
   <si>
     <t>Gleitstück 16mm</t>
+  </si>
+  <si>
+    <t>http://3dmarkt.at/de/3D-Drucker-Zubehoer-Bauteile-Ersatzteile/achsantrieb/zahnriemen-1m-x-6mm-gt2.html</t>
+  </si>
+  <si>
+    <t>Zahnriemen 1mx6mm (GT2)</t>
+  </si>
+  <si>
+    <t>http://3dmarkt.at/de/3D-Drucker-Zubehoer-Bauteile-Ersatzteile/achsantrieb/zahnriemen-gt2-aus-aluminium-pulley.html</t>
+  </si>
+  <si>
+    <t>Zahnriemen GT2 aus Aluminium (Pulley)</t>
+  </si>
+  <si>
+    <t>http://3dmarkt.at/de/3D-Drucker-Zubehoer-Bauteile-Ersatzteile/achsantrieb/10mm-glatte-welle-100-cm-smooth-rod.html</t>
+  </si>
+  <si>
+    <t>10mm glatte Welle - 100 cm (smooth rod)</t>
+  </si>
+  <si>
+    <t>http://3dmarkt.at/de/elektronik/netzteil/netzteil-24v-240-115v-15a-max.html</t>
+  </si>
+  <si>
+    <t>Netzteil 24V (240/115V / 15A MAX)</t>
+  </si>
+  <si>
+    <t>http://3dmarkt.at/de/3D-Drucker-Zubehoer-Bauteile-Ersatzteile/achsantrieb/motorkupplung-z-achse-m8.html</t>
+  </si>
+  <si>
+    <t>Motorkupplung Z-Achse M8</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/gewindestangen-1000-mm-m8-stahl-galvanisch-verzinkt-guete-46-58-134761.html</t>
+  </si>
+  <si>
+    <t>M8 Gewindestange</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/gleitstehlager-igus-estm-10-bohrungs-10-mm-lochabstand-26-mm-1416682.html</t>
+  </si>
+  <si>
+    <t>Gleitlager für y-Achse</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/pmic-voll-halbbrueckentreiber-stmicroelectronics-l298hn-induktiv-bipolar-multiwatt-15-1185128.html</t>
+  </si>
+  <si>
+    <t>H-Bridge</t>
+  </si>
+  <si>
+    <t>https://www.conrad.at/de/spezialkugellager-fuer-rc-cars-12-mm-8-mm-35-mm-295639.html?sc.ref=Category%20Overview</t>
+  </si>
+  <si>
+    <t>Kugellager</t>
+  </si>
+  <si>
+    <t>NEMA17 Schrittmotor 1,8 Grad pro Schritt / 4,8 kg/cm</t>
+  </si>
+  <si>
+    <t>Stück</t>
+  </si>
+  <si>
+    <t>Gesamtpreis</t>
   </si>
 </sst>
 </file>
@@ -64,9 +118,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +136,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,16 +181,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -389,148 +492,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A3:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="116.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E17" si="0">C4*D4</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="D5" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>69</v>
-      </c>
-      <c r="D4">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="D6" s="10">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>38.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <f>C4*D4</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.79</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5">
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E20" si="0">C5*D5</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="D7">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>22.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.79</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>19.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,40 +743,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
-        <f>SUM(E4:E20)</f>
-        <v>164.35999999999999</v>
+        <f>SUM(E4:E17)</f>
+        <v>243.03000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>